--- a/runs/run465/NotionalETEOutput465.xlsx
+++ b/runs/run465/NotionalETEOutput465.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT1_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_41.MISSILE_SOMERSAULT1_41</t>
+    <t>MISSILE_ANGERMAX0_298.MISSILE_ANGERMAX0_298</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1489.719498445549</v>
+        <v>-1503.312972061484</v>
       </c>
       <c r="J2">
-        <v>1913.138805012826</v>
+        <v>1935.267874642327</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1520.458587536505</v>
+        <v>-1513.282302989424</v>
       </c>
       <c r="J3">
-        <v>1925.210918048945</v>
+        <v>1861.561076202075</v>
       </c>
       <c r="K3">
-        <v>297.31792255837</v>
+        <v>314.8681599070635</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1454.920392942275</v>
+        <v>-1510.957610012206</v>
       </c>
       <c r="J4">
-        <v>1887.496850365715</v>
+        <v>1881.414087468756</v>
       </c>
       <c r="K4">
-        <v>603.9856704896386</v>
+        <v>591.8247599021166</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1390.614120227903</v>
+        <v>-1367.395823452836</v>
       </c>
       <c r="J5">
-        <v>1784.774068155744</v>
+        <v>1782.760190572631</v>
       </c>
       <c r="K5">
-        <v>830.6700647692996</v>
+        <v>864.910996680615</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1323.970201173617</v>
+        <v>-1382.05214285484</v>
       </c>
       <c r="J6">
-        <v>1776.716604105788</v>
+        <v>1894.979088594742</v>
       </c>
       <c r="K6">
-        <v>1144.72923484509</v>
+        <v>1077.080000350535</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1329.765087772339</v>
+        <v>-1369.534816049633</v>
       </c>
       <c r="J7">
-        <v>1820.094582864591</v>
+        <v>1744.173261814777</v>
       </c>
       <c r="K7">
-        <v>1404.207386232345</v>
+        <v>1415.099208468146</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1251.302572054796</v>
+        <v>-1268.457970960039</v>
       </c>
       <c r="J8">
-        <v>1662.782895699647</v>
+        <v>1774.541629174714</v>
       </c>
       <c r="K8">
-        <v>1674.702518299343</v>
+        <v>1646.485530592923</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.6856811409171</v>
+        <v>-103.1128991502284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1321.042335155057</v>
+        <v>-1216.681397451309</v>
       </c>
       <c r="J9">
-        <v>1718.411636335152</v>
+        <v>1728.525246262617</v>
       </c>
       <c r="K9">
-        <v>1759.534796788558</v>
+        <v>1868.186131009102</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.5330424605025</v>
+        <v>208.6970487639377</v>
       </c>
       <c r="G10">
-        <v>-80.46809116358671</v>
+        <v>-79.91720450475809</v>
       </c>
       <c r="H10">
-        <v>867.0532790923571</v>
+        <v>847.770468431484</v>
       </c>
       <c r="I10">
-        <v>-1276.36094344523</v>
+        <v>-1186.847361291045</v>
       </c>
       <c r="J10">
-        <v>1634.125979127704</v>
+        <v>1634.283219060529</v>
       </c>
       <c r="K10">
-        <v>2052.351423055603</v>
+        <v>2064.356869343045</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.9254799969754</v>
+        <v>171.9559211434045</v>
       </c>
       <c r="G11">
-        <v>-68.05842848727467</v>
+        <v>-65.46691098926289</v>
       </c>
       <c r="H11">
-        <v>1086.550395441843</v>
+        <v>1062.334156675579</v>
       </c>
       <c r="I11">
-        <v>-1255.068135515132</v>
+        <v>-1192.199854292979</v>
       </c>
       <c r="J11">
-        <v>1588.47275877569</v>
+        <v>1598.23148498307</v>
       </c>
       <c r="K11">
-        <v>2082.240125603643</v>
+        <v>2255.529861318147</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.5804178567375</v>
+        <v>137.8512027538503</v>
       </c>
       <c r="G12">
-        <v>-51.30771935231019</v>
+        <v>-49.60612653578132</v>
       </c>
       <c r="H12">
-        <v>1181.086807699594</v>
+        <v>1144.302926690921</v>
       </c>
       <c r="I12">
-        <v>-1203.91925295678</v>
+        <v>-1187.972929029935</v>
       </c>
       <c r="J12">
-        <v>1553.757814905203</v>
+        <v>1489.843248410485</v>
       </c>
       <c r="K12">
-        <v>2453.551007257608</v>
+        <v>2310.308506940794</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.6906787140823</v>
+        <v>121.288458296084</v>
       </c>
       <c r="G13">
-        <v>-32.4745655793624</v>
+        <v>-35.63472680237047</v>
       </c>
       <c r="H13">
-        <v>1268.799387407535</v>
+        <v>1269.690764969066</v>
       </c>
       <c r="I13">
-        <v>-1179.471999145807</v>
+        <v>-1087.246445445259</v>
       </c>
       <c r="J13">
-        <v>1395.610345788499</v>
+        <v>1536.243753623797</v>
       </c>
       <c r="K13">
-        <v>2578.373988526787</v>
+        <v>2623.281732770372</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.796103953451</v>
+        <v>104.8398590900383</v>
       </c>
       <c r="G14">
-        <v>-18.06209540727566</v>
+        <v>-16.99292459142198</v>
       </c>
       <c r="H14">
-        <v>1281.282621386352</v>
+        <v>1343.532726942771</v>
       </c>
       <c r="I14">
-        <v>-1121.646145758887</v>
+        <v>-1084.706590557466</v>
       </c>
       <c r="J14">
-        <v>1449.672932051663</v>
+        <v>1351.061340470119</v>
       </c>
       <c r="K14">
-        <v>2697.910741172567</v>
+        <v>2713.238344043813</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.7633493305827</v>
+        <v>102.3879948565699</v>
       </c>
       <c r="G15">
-        <v>-0.9451624683012928</v>
+        <v>-0.9166105860977006</v>
       </c>
       <c r="H15">
-        <v>1406.59982943411</v>
+        <v>1319.810777440854</v>
       </c>
       <c r="I15">
-        <v>-1017.758641560362</v>
+        <v>-1053.578505153678</v>
       </c>
       <c r="J15">
-        <v>1415.852368572107</v>
+        <v>1402.638190459526</v>
       </c>
       <c r="K15">
-        <v>2881.328030379663</v>
+        <v>2689.361259037975</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.99989887642549</v>
+        <v>96.88383920063427</v>
       </c>
       <c r="G16">
-        <v>16.17730304511553</v>
+        <v>15.42120239589222</v>
       </c>
       <c r="H16">
-        <v>1482.475167811638</v>
+        <v>1474.1441168369</v>
       </c>
       <c r="I16">
-        <v>-1013.292691655095</v>
+        <v>-972.25028105075</v>
       </c>
       <c r="J16">
-        <v>1271.855513553252</v>
+        <v>1333.608684660119</v>
       </c>
       <c r="K16">
-        <v>2755.430234910587</v>
+        <v>2841.961037371706</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.80854061822254</v>
+        <v>83.08956281775484</v>
       </c>
       <c r="G17">
-        <v>30.69211386593074</v>
+        <v>32.37111205286828</v>
       </c>
       <c r="H17">
-        <v>1427.069867585176</v>
+        <v>1492.92225753208</v>
       </c>
       <c r="I17">
-        <v>-953.6110182672329</v>
+        <v>-1000.986190929935</v>
       </c>
       <c r="J17">
-        <v>1293.407437975838</v>
+        <v>1288.425949140536</v>
       </c>
       <c r="K17">
-        <v>2833.997502057657</v>
+        <v>2962.826842061182</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.61664378739395</v>
+        <v>79.7555326389533</v>
       </c>
       <c r="G18">
-        <v>46.89275900615236</v>
+        <v>48.37119599857049</v>
       </c>
       <c r="H18">
-        <v>1505.344007670373</v>
+        <v>1480.667948169945</v>
       </c>
       <c r="I18">
-        <v>-964.6624943192413</v>
+        <v>-935.418999843833</v>
       </c>
       <c r="J18">
-        <v>1229.067092032612</v>
+        <v>1281.12667912397</v>
       </c>
       <c r="K18">
-        <v>2937.860921027183</v>
+        <v>3136.695661662277</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.60226202012564</v>
+        <v>74.67562629636902</v>
       </c>
       <c r="G19">
-        <v>63.59585344267264</v>
+        <v>63.9944725397535</v>
       </c>
       <c r="H19">
-        <v>1562.517248780252</v>
+        <v>1466.477452184496</v>
       </c>
       <c r="I19">
-        <v>-854.3268354799526</v>
+        <v>-904.2353816018212</v>
       </c>
       <c r="J19">
-        <v>1214.154615608425</v>
+        <v>1124.470778870791</v>
       </c>
       <c r="K19">
-        <v>3196.107604805998</v>
+        <v>3233.768068670084</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.9970188141093</v>
+        <v>74.54651395315533</v>
       </c>
       <c r="G20">
-        <v>83.0472605444605</v>
+        <v>82.86103309526446</v>
       </c>
       <c r="H20">
-        <v>1589.010537301978</v>
+        <v>1570.46102565142</v>
       </c>
       <c r="I20">
-        <v>-819.1546660042636</v>
+        <v>-852.8010816023627</v>
       </c>
       <c r="J20">
-        <v>1114.886288971017</v>
+        <v>1081.180571901742</v>
       </c>
       <c r="K20">
-        <v>3090.626081393191</v>
+        <v>3087.787041769687</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.4823668228244</v>
+        <v>67.9477641810938</v>
       </c>
       <c r="G21">
-        <v>97.01318989651027</v>
+        <v>98.90224261835048</v>
       </c>
       <c r="H21">
-        <v>1511.913994944962</v>
+        <v>1560.927557157621</v>
       </c>
       <c r="I21">
-        <v>-824.839261549212</v>
+        <v>-791.1647630023864</v>
       </c>
       <c r="J21">
-        <v>1104.960688376874</v>
+        <v>1062.120628976249</v>
       </c>
       <c r="K21">
-        <v>3135.618978986446</v>
+        <v>3096.659381687243</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.30641102124515</v>
+        <v>65.82250069097564</v>
       </c>
       <c r="G22">
-        <v>117.5483494537907</v>
+        <v>110.5764429950094</v>
       </c>
       <c r="H22">
-        <v>1651.081322913945</v>
+        <v>1676.339630568455</v>
       </c>
       <c r="I22">
-        <v>-782.883299340197</v>
+        <v>-711.5091493964113</v>
       </c>
       <c r="J22">
-        <v>1029.628501143282</v>
+        <v>1047.308084110435</v>
       </c>
       <c r="K22">
-        <v>3100.360353436067</v>
+        <v>3039.806670748965</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.15442775614265</v>
+        <v>64.59778822496557</v>
       </c>
       <c r="G23">
-        <v>131.9346056163543</v>
+        <v>129.7178473380828</v>
       </c>
       <c r="H23">
-        <v>1660.911007302179</v>
+        <v>1558.648603550268</v>
       </c>
       <c r="I23">
-        <v>-721.3631755664168</v>
+        <v>-713.8638798598668</v>
       </c>
       <c r="J23">
-        <v>1005.765242044034</v>
+        <v>1011.207732431776</v>
       </c>
       <c r="K23">
-        <v>3172.485400128793</v>
+        <v>3056.36589732533</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.32764396236067</v>
+        <v>60.79604075023251</v>
       </c>
       <c r="G24">
-        <v>143.377546286432</v>
+        <v>149.3741013391102</v>
       </c>
       <c r="H24">
-        <v>1700.457198679442</v>
+        <v>1591.218702581884</v>
       </c>
       <c r="I24">
-        <v>-638.987579455231</v>
+        <v>-663.8671131521812</v>
       </c>
       <c r="J24">
-        <v>965.9738419665518</v>
+        <v>892.5270628414123</v>
       </c>
       <c r="K24">
-        <v>3286.437330910677</v>
+        <v>3059.062512949597</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.72097024982258</v>
+        <v>64.21742276443489</v>
       </c>
       <c r="G25">
-        <v>158.9774894535918</v>
+        <v>165.7391519578967</v>
       </c>
       <c r="H25">
-        <v>1647.520302778065</v>
+        <v>1625.022888310458</v>
       </c>
       <c r="I25">
-        <v>-595.2410981873538</v>
+        <v>-582.0735679803621</v>
       </c>
       <c r="J25">
-        <v>846.9950909978776</v>
+        <v>873.9310291949937</v>
       </c>
       <c r="K25">
-        <v>3257.05003919387</v>
+        <v>3185.410997332182</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.55217709588829</v>
+        <v>56.89633369115142</v>
       </c>
       <c r="G26">
-        <v>187.9124933808836</v>
+        <v>181.3933991554504</v>
       </c>
       <c r="H26">
-        <v>1715.020590336203</v>
+        <v>1627.175682409966</v>
       </c>
       <c r="I26">
-        <v>-524.9371335781955</v>
+        <v>-519.6931595082211</v>
       </c>
       <c r="J26">
-        <v>872.8768956957725</v>
+        <v>802.8066809455297</v>
       </c>
       <c r="K26">
-        <v>3139.912249921962</v>
+        <v>3069.299524267381</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.35322829908532</v>
+        <v>55.46591589617206</v>
       </c>
       <c r="G27">
-        <v>201.9051266207665</v>
+        <v>187.5840540690378</v>
       </c>
       <c r="H27">
-        <v>1716.662113389055</v>
+        <v>1705.007073438083</v>
       </c>
       <c r="I27">
-        <v>-472.1250001503233</v>
+        <v>-473.8409421723509</v>
       </c>
       <c r="J27">
-        <v>785.0876674056339</v>
+        <v>748.5247018366973</v>
       </c>
       <c r="K27">
-        <v>2914.663625033416</v>
+        <v>3067.232837199134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.99809212306757</v>
+        <v>55.34493111277739</v>
       </c>
       <c r="G28">
-        <v>214.9293448170228</v>
+        <v>212.3897188766485</v>
       </c>
       <c r="H28">
-        <v>1787.382481533404</v>
+        <v>1772.552172134779</v>
       </c>
       <c r="I28">
-        <v>-444.5713804851038</v>
+        <v>-428.9590722997887</v>
       </c>
       <c r="J28">
-        <v>749.7941206821313</v>
+        <v>749.6065317584025</v>
       </c>
       <c r="K28">
-        <v>2990.324811576994</v>
+        <v>2864.566943513619</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.74181541213559</v>
+        <v>54.00417023829383</v>
       </c>
       <c r="G29">
-        <v>239.5584866363661</v>
+        <v>237.814207502118</v>
       </c>
       <c r="H29">
-        <v>1765.769857899686</v>
+        <v>1727.304598713454</v>
       </c>
       <c r="I29">
-        <v>-394.3335073113445</v>
+        <v>-388.1726413063661</v>
       </c>
       <c r="J29">
-        <v>709.5039720129587</v>
+        <v>669.3185865112922</v>
       </c>
       <c r="K29">
-        <v>2767.988038211733</v>
+        <v>2813.52639209371</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.21324918718607</v>
+        <v>51.52745444782754</v>
       </c>
       <c r="G30">
-        <v>245.6531596853741</v>
+        <v>254.6827764571222</v>
       </c>
       <c r="H30">
-        <v>1803.096139684995</v>
+        <v>1704.155962990084</v>
       </c>
       <c r="I30">
-        <v>-335.3245431701392</v>
+        <v>-325.9839645779369</v>
       </c>
       <c r="J30">
-        <v>662.5023680379894</v>
+        <v>618.0542086651906</v>
       </c>
       <c r="K30">
-        <v>2900.686836190901</v>
+        <v>2777.774149897968</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.92702816421076</v>
+        <v>50.02081470686159</v>
       </c>
       <c r="G31">
-        <v>276.1998775790414</v>
+        <v>253.4317883119957</v>
       </c>
       <c r="H31">
-        <v>1721.154716095281</v>
+        <v>1721.061652480393</v>
       </c>
       <c r="I31">
-        <v>-263.1246195941203</v>
+        <v>-275.2912902410768</v>
       </c>
       <c r="J31">
-        <v>595.813469136487</v>
+        <v>600.1538736597652</v>
       </c>
       <c r="K31">
-        <v>2629.482475060684</v>
+        <v>2675.500559305844</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.17310242153746</v>
+        <v>51.23193356609102</v>
       </c>
       <c r="G32">
-        <v>275.6180224278694</v>
+        <v>276.172905334138</v>
       </c>
       <c r="H32">
-        <v>1770.679324375683</v>
+        <v>1786.337769359231</v>
       </c>
       <c r="I32">
-        <v>-203.0453126448155</v>
+        <v>-210.4313342932827</v>
       </c>
       <c r="J32">
-        <v>557.0636197307655</v>
+        <v>528.9718934553097</v>
       </c>
       <c r="K32">
-        <v>2427.287517408583</v>
+        <v>2462.067855601746</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.62435783045817</v>
+        <v>48.32958042404199</v>
       </c>
       <c r="G33">
-        <v>286.6532757176579</v>
+        <v>287.0352112257152</v>
       </c>
       <c r="H33">
-        <v>1883.073281937384</v>
+        <v>1811.113524280931</v>
       </c>
       <c r="I33">
-        <v>-152.4277366779468</v>
+        <v>-144.1947006390915</v>
       </c>
       <c r="J33">
-        <v>475.4949232382057</v>
+        <v>468.1613773211741</v>
       </c>
       <c r="K33">
-        <v>2295.186213431414</v>
+        <v>2444.574865332821</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.78431979854296</v>
+        <v>49.03716524552356</v>
       </c>
       <c r="G34">
-        <v>317.5391611849417</v>
+        <v>309.0108914882474</v>
       </c>
       <c r="H34">
-        <v>1756.394119790351</v>
+        <v>1810.787255294543</v>
       </c>
       <c r="I34">
-        <v>-82.54113735646848</v>
+        <v>-85.1258536004482</v>
       </c>
       <c r="J34">
-        <v>455.1519645203059</v>
+        <v>458.920526855742</v>
       </c>
       <c r="K34">
-        <v>2283.561862837889</v>
+        <v>2267.563796574299</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.21637240584738</v>
+        <v>46.62955644393658</v>
       </c>
       <c r="G35">
-        <v>330.0928906847332</v>
+        <v>324.4337864781248</v>
       </c>
       <c r="H35">
-        <v>1730.523839065306</v>
+        <v>1875.694116922057</v>
       </c>
       <c r="I35">
-        <v>-18.6091296423539</v>
+        <v>-19.43273438648979</v>
       </c>
       <c r="J35">
-        <v>404.0623447432023</v>
+        <v>379.9904597652034</v>
       </c>
       <c r="K35">
-        <v>2031.991196323683</v>
+        <v>2072.154591952217</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.01564876484004</v>
+        <v>46.17699918544623</v>
       </c>
       <c r="G36">
-        <v>351.4368466865448</v>
+        <v>349.9602076301671</v>
       </c>
       <c r="H36">
-        <v>1891.250201688962</v>
+        <v>1747.683572009885</v>
       </c>
       <c r="I36">
-        <v>47.52376634471088</v>
+        <v>48.82941774215603</v>
       </c>
       <c r="J36">
-        <v>331.7220738984137</v>
+        <v>347.9428505172378</v>
       </c>
       <c r="K36">
-        <v>1794.994896624004</v>
+        <v>1910.317193715532</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.88389604299874</v>
+        <v>46.62680774092084</v>
       </c>
       <c r="G37">
-        <v>353.4563343257623</v>
+        <v>372.5399890529408</v>
       </c>
       <c r="H37">
-        <v>1759.215082402396</v>
+        <v>1841.763369726749</v>
       </c>
       <c r="I37">
-        <v>116.9982898494617</v>
+        <v>118.1190002145945</v>
       </c>
       <c r="J37">
-        <v>297.8883575700627</v>
+        <v>311.6074304736461</v>
       </c>
       <c r="K37">
-        <v>1633.096440415476</v>
+        <v>1547.775783511702</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.99254936519964</v>
+        <v>44.19331893845062</v>
       </c>
       <c r="G38">
-        <v>390.6241317990194</v>
+        <v>378.369455655006</v>
       </c>
       <c r="H38">
-        <v>1850.929012416436</v>
+        <v>1938.610455791764</v>
       </c>
       <c r="I38">
-        <v>180.2078342848479</v>
+        <v>192.4560500504729</v>
       </c>
       <c r="J38">
-        <v>238.8809078240103</v>
+        <v>245.723635599028</v>
       </c>
       <c r="K38">
-        <v>1441.702294174894</v>
+        <v>1408.753298571994</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.95438766145755</v>
+        <v>46.6271109750711</v>
       </c>
       <c r="G39">
-        <v>407.8583769573073</v>
+        <v>405.734712351598</v>
       </c>
       <c r="H39">
-        <v>1806.781477185752</v>
+        <v>1876.951573184004</v>
       </c>
       <c r="I39">
-        <v>245.8184087227621</v>
+        <v>250.2751059289681</v>
       </c>
       <c r="J39">
-        <v>190.4341437198751</v>
+        <v>193.3439215728139</v>
       </c>
       <c r="K39">
-        <v>1172.75391229496</v>
+        <v>1104.611794142916</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.58516798600053</v>
+        <v>42.60320050545462</v>
       </c>
       <c r="G40">
-        <v>407.9508960665611</v>
+        <v>402.2942665838178</v>
       </c>
       <c r="H40">
-        <v>1923.277229039708</v>
+        <v>1886.937188277424</v>
       </c>
       <c r="I40">
-        <v>332.5993394270514</v>
+        <v>336.5901088226309</v>
       </c>
       <c r="J40">
-        <v>147.594815971935</v>
+        <v>144.5064957169783</v>
       </c>
       <c r="K40">
-        <v>924.1308509194017</v>
+        <v>934.8275017243319</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.86279839694017</v>
+        <v>42.56989998824056</v>
       </c>
       <c r="G41">
-        <v>439.0856196003464</v>
+        <v>432.7763250885556</v>
       </c>
       <c r="H41">
-        <v>1933.72150617179</v>
+        <v>1971.19846829008</v>
       </c>
       <c r="I41">
-        <v>401.3368381828033</v>
+        <v>382.8952804972795</v>
       </c>
       <c r="J41">
-        <v>98.20494919560741</v>
+        <v>101.563606994029</v>
       </c>
       <c r="K41">
-        <v>603.3340236398354</v>
+        <v>650.7958219170109</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.14861262695028</v>
+        <v>41.57629967205632</v>
       </c>
       <c r="G42">
-        <v>462.5469464454537</v>
+        <v>451.5295835231095</v>
       </c>
       <c r="H42">
-        <v>1907.563914737104</v>
+        <v>1866.300218074572</v>
       </c>
       <c r="I42">
-        <v>496.3932883383055</v>
+        <v>477.3832742780762</v>
       </c>
       <c r="J42">
-        <v>56.05888514032581</v>
+        <v>54.50824834701861</v>
       </c>
       <c r="K42">
-        <v>323.0914804725451</v>
+        <v>337.5512244646677</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.4126590341162</v>
+        <v>43.87256973397584</v>
       </c>
       <c r="G43">
-        <v>470.5847690474128</v>
+        <v>478.4329061185359</v>
       </c>
       <c r="H43">
-        <v>1904.143087056632</v>
+        <v>1896.146829201514</v>
       </c>
       <c r="I43">
-        <v>562.2350077664363</v>
+        <v>585.4008145703644</v>
       </c>
       <c r="J43">
-        <v>5.15062174859031</v>
+        <v>5.27357958843502</v>
       </c>
       <c r="K43">
-        <v>33.61511398559272</v>
+        <v>34.71544964729292</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.35280804610792</v>
+        <v>40.54847072924421</v>
       </c>
       <c r="G44">
-        <v>481.3543049059844</v>
+        <v>482.4060749923464</v>
       </c>
       <c r="H44">
-        <v>1913.530257622675</v>
+        <v>1911.742740810018</v>
       </c>
       <c r="I44">
-        <v>657.6081961562617</v>
+        <v>662.1151190760536</v>
       </c>
       <c r="J44">
-        <v>-44.59903918612759</v>
+        <v>-41.75601413256087</v>
       </c>
       <c r="K44">
-        <v>-288.0961767379118</v>
+        <v>-292.314528422116</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.12950111433499</v>
+        <v>39.1578310350367</v>
       </c>
       <c r="G45">
-        <v>483.211775468173</v>
+        <v>517.2373416029777</v>
       </c>
       <c r="H45">
-        <v>1891.80535716996</v>
+        <v>1928.510007325603</v>
       </c>
       <c r="I45">
-        <v>708.3175704845795</v>
+        <v>724.9423295567202</v>
       </c>
       <c r="J45">
-        <v>-90.98886288894391</v>
+        <v>-87.70985166028535</v>
       </c>
       <c r="K45">
-        <v>-606.5387724559976</v>
+        <v>-644.5094874635465</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.24695571467752</v>
+        <v>42.00732187051474</v>
       </c>
       <c r="G46">
-        <v>502.6857160363381</v>
+        <v>517.3250915750259</v>
       </c>
       <c r="H46">
-        <v>1857.359628110799</v>
+        <v>1839.120375957761</v>
       </c>
       <c r="I46">
-        <v>798.6815487073416</v>
+        <v>782.786763689801</v>
       </c>
       <c r="J46">
-        <v>-141.6807759480306</v>
+        <v>-142.2494681376876</v>
       </c>
       <c r="K46">
-        <v>-983.448134223167</v>
+        <v>-928.1936815562945</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.22839007366351</v>
+        <v>40.3139847737392</v>
       </c>
       <c r="G47">
-        <v>546.7712933019588</v>
+        <v>505.4965162356067</v>
       </c>
       <c r="H47">
-        <v>1849.023633221085</v>
+        <v>1936.982373027427</v>
       </c>
       <c r="I47">
-        <v>856.5290121465407</v>
+        <v>899.0367598460787</v>
       </c>
       <c r="J47">
-        <v>-188.4470310372713</v>
+        <v>-190.6029168806607</v>
       </c>
       <c r="K47">
-        <v>-1315.996474903654</v>
+        <v>-1307.139795721537</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.11138982360156</v>
+        <v>40.60073215009912</v>
       </c>
       <c r="G48">
-        <v>518.0199460805437</v>
+        <v>528.1132896918971</v>
       </c>
       <c r="H48">
-        <v>1922.734633674294</v>
+        <v>2035.428141257372</v>
       </c>
       <c r="I48">
-        <v>949.655751484572</v>
+        <v>1008.313892921483</v>
       </c>
       <c r="J48">
-        <v>-230.3750350753748</v>
+        <v>-234.2064413268059</v>
       </c>
       <c r="K48">
-        <v>-1681.734329572304</v>
+        <v>-1730.324898315562</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.15815419599902</v>
+        <v>37.0711389503097</v>
       </c>
       <c r="G49">
-        <v>577.9986598677183</v>
+        <v>580.6814114379666</v>
       </c>
       <c r="H49">
-        <v>1991.668539949813</v>
+        <v>1995.866228638889</v>
       </c>
       <c r="I49">
-        <v>1044.824897883416</v>
+        <v>1103.996866405048</v>
       </c>
       <c r="J49">
-        <v>-289.445215685656</v>
+        <v>-280.3319694704725</v>
       </c>
       <c r="K49">
-        <v>-2090.297127107956</v>
+        <v>-2049.003209911306</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.88516467312287</v>
+        <v>38.1505297649253</v>
       </c>
       <c r="G50">
-        <v>569.7480393616622</v>
+        <v>558.2384001136525</v>
       </c>
       <c r="H50">
-        <v>1967.706954041254</v>
+        <v>2044.702617519035</v>
       </c>
       <c r="I50">
-        <v>1179.34882684135</v>
+        <v>1215.181896077082</v>
       </c>
       <c r="J50">
-        <v>-346.8806985800529</v>
+        <v>-325.4871350318177</v>
       </c>
       <c r="K50">
-        <v>-2585.301644846574</v>
+        <v>-2517.913886325804</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.27772630563152</v>
+        <v>37.88781767289704</v>
       </c>
       <c r="G51">
-        <v>573.0533135129394</v>
+        <v>602.5608336665277</v>
       </c>
       <c r="H51">
-        <v>2011.740482585831</v>
+        <v>1999.32016721307</v>
       </c>
       <c r="I51">
-        <v>1210.744784746222</v>
+        <v>1319.813503087276</v>
       </c>
       <c r="J51">
-        <v>-374.9283383476214</v>
+        <v>-385.4070115309754</v>
       </c>
       <c r="K51">
-        <v>-3037.405288326726</v>
+        <v>-2829.272946796699</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.36251005441833</v>
+        <v>38.32838375049563</v>
       </c>
       <c r="G52">
-        <v>636.4876515045436</v>
+        <v>607.4330871310143</v>
       </c>
       <c r="H52">
-        <v>1946.672387949055</v>
+        <v>1895.063135760071</v>
       </c>
       <c r="I52">
-        <v>1369.818944480352</v>
+        <v>1355.220343634422</v>
       </c>
       <c r="J52">
-        <v>-440.4950455208677</v>
+        <v>-451.4012551162969</v>
       </c>
       <c r="K52">
-        <v>-3294.152619551009</v>
+        <v>-3357.116919083495</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.79960450606144</v>
+        <v>37.06181956259753</v>
       </c>
       <c r="G53">
-        <v>608.2213552586718</v>
+        <v>618.0378884557548</v>
       </c>
       <c r="H53">
-        <v>1982.692535409031</v>
+        <v>2070.630448889112</v>
       </c>
       <c r="I53">
-        <v>1459.968630590976</v>
+        <v>1483.809391661919</v>
       </c>
       <c r="J53">
-        <v>-467.3830138636239</v>
+        <v>-496.2274820659974</v>
       </c>
       <c r="K53">
-        <v>-3999.655080943136</v>
+        <v>-4007.037434349345</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.36917549023725</v>
+        <v>37.71296851698097</v>
       </c>
       <c r="G54">
-        <v>642.0504799764313</v>
+        <v>663.8403132358678</v>
       </c>
       <c r="H54">
-        <v>1960.13888440662</v>
+        <v>2046.581278089987</v>
       </c>
       <c r="I54">
-        <v>1486.56921725635</v>
+        <v>1631.271448532988</v>
       </c>
       <c r="J54">
-        <v>-522.4046043111105</v>
+        <v>-513.5434373029327</v>
       </c>
       <c r="K54">
-        <v>-4318.391502243739</v>
+        <v>-4317.160443157535</v>
       </c>
     </row>
   </sheetData>
